--- a/static/Models/Regression/Equation/Automobiles.xlsx
+++ b/static/Models/Regression/Equation/Automobiles.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.02250568196177483</v>
+        <v>-0.02036180905997753</v>
       </c>
       <c r="C2">
-        <v>-0.1053883656859398</v>
+        <v>-0.1060496643185616</v>
       </c>
       <c r="D2">
-        <v>-0.08391633629798889</v>
+        <v>-0.08793163299560547</v>
       </c>
       <c r="E2">
-        <v>0.03649797663092613</v>
+        <v>0.02950927801430225</v>
       </c>
       <c r="F2">
-        <v>0.001128455973230302</v>
+        <v>-0.004604753106832504</v>
       </c>
       <c r="G2">
-        <v>-0.004342292901128531</v>
+        <v>-0.006453659851104021</v>
       </c>
       <c r="H2">
-        <v>0.007249403279274702</v>
+        <v>0.006232602056115866</v>
       </c>
       <c r="I2">
-        <v>-0.005277694668620825</v>
+        <v>-0.004435316659510136</v>
       </c>
       <c r="J2">
-        <v>-0.1852235198020935</v>
+        <v>-0.1814281493425369</v>
       </c>
       <c r="K2">
-        <v>-0.008464297279715538</v>
+        <v>0.0007351741660386324</v>
       </c>
       <c r="L2">
-        <v>0.00105382944457233</v>
+        <v>0.004327129572629929</v>
       </c>
       <c r="M2">
-        <v>0.005177790299057961</v>
+        <v>2.817033237079158E-05</v>
       </c>
       <c r="N2">
-        <v>0.002110467990860343</v>
+        <v>0.007607914973050356</v>
       </c>
       <c r="O2">
-        <v>0.0550559014081955</v>
+        <v>0.06023984774947166</v>
       </c>
       <c r="P2">
-        <v>0.06549282371997833</v>
+        <v>0.06363844126462936</v>
       </c>
       <c r="Q2">
-        <v>-0.02652988210320473</v>
+        <v>-0.0260264091193676</v>
       </c>
       <c r="R2">
-        <v>-0.01648082211613655</v>
+        <v>-0.02387060411274433</v>
       </c>
       <c r="S2">
-        <v>0.02496310137212276</v>
+        <v>0.02612726576626301</v>
       </c>
       <c r="T2">
-        <v>0.04704428091645241</v>
+        <v>0.04693902283906937</v>
       </c>
       <c r="U2">
-        <v>0.01237152703106403</v>
+        <v>0.01552807353436947</v>
       </c>
       <c r="V2">
-        <v>0.001389512675814331</v>
+        <v>-0.003800727659836411</v>
       </c>
       <c r="W2">
-        <v>0.07426311075687408</v>
+        <v>0.08291947096586227</v>
       </c>
       <c r="X2">
-        <v>0.003014906775206327</v>
+        <v>0.005090303253382444</v>
       </c>
       <c r="Y2">
-        <v>-0.03828860446810722</v>
+        <v>-0.04400606825947762</v>
       </c>
       <c r="Z2">
-        <v>-0.03803940489888191</v>
+        <v>-0.04069307446479797</v>
       </c>
       <c r="AA2">
-        <v>0.01047574449330568</v>
+        <v>0.01314876321703196</v>
       </c>
       <c r="AB2">
-        <v>0.03994017839431763</v>
+        <v>0.03314436599612236</v>
       </c>
       <c r="AC2">
-        <v>-0.04650371521711349</v>
+        <v>-0.0434589684009552</v>
       </c>
       <c r="AD2">
-        <v>-0.1190546676516533</v>
+        <v>-0.1192283108830452</v>
       </c>
       <c r="AE2">
-        <v>-0.0496053658425808</v>
+        <v>-0.05352435261011124</v>
       </c>
       <c r="AF2">
-        <v>-0.009040691889822483</v>
+        <v>-0.00165489490609616</v>
       </c>
       <c r="AG2">
-        <v>-0.01597544178366661</v>
+        <v>-0.0203035082668066</v>
       </c>
       <c r="AH2">
-        <v>-0.01910466887056828</v>
+        <v>-0.02122060023248196</v>
       </c>
       <c r="AI2">
-        <v>0.03249797224998474</v>
+        <v>0.02862648107111454</v>
       </c>
       <c r="AJ2">
-        <v>0.00784788466989994</v>
+        <v>0.01416498981416225</v>
       </c>
       <c r="AK2">
-        <v>0.002051362534984946</v>
+        <v>0.001654838444665074</v>
       </c>
       <c r="AL2">
-        <v>0.004207865335047245</v>
+        <v>0.001726415473967791</v>
       </c>
       <c r="AM2">
-        <v>-0.03702311217784882</v>
+        <v>-0.04442192614078522</v>
       </c>
       <c r="AN2">
-        <v>-0.06453505158424377</v>
+        <v>-0.0662609189748764</v>
       </c>
       <c r="AO2">
-        <v>0.02084096893668175</v>
+        <v>0.0177006796002388</v>
       </c>
       <c r="AP2">
-        <v>0.08886281400918961</v>
+        <v>0.08843841403722763</v>
       </c>
       <c r="AQ2">
-        <v>-0.0002090745547320694</v>
+        <v>-0.008066494949162006</v>
       </c>
       <c r="AR2">
-        <v>0.04399258643388748</v>
+        <v>0.03824195265769958</v>
       </c>
       <c r="AS2">
-        <v>0.02805720828473568</v>
+        <v>0.02794869057834148</v>
       </c>
       <c r="AT2">
-        <v>0.01316960528492928</v>
+        <v>0.01126526389271021</v>
       </c>
       <c r="AU2">
-        <v>0.01495376415550709</v>
+        <v>0.01073588896542788</v>
       </c>
       <c r="AV2">
-        <v>-0.02283705584704876</v>
+        <v>-0.02520791999995708</v>
       </c>
       <c r="AW2">
-        <v>0.02588954009115696</v>
+        <v>0.02660565450787544</v>
       </c>
       <c r="AX2">
-        <v>-0.02774039283394814</v>
+        <v>-0.03145374730229378</v>
       </c>
       <c r="AY2">
-        <v>-0.04235092177987099</v>
+        <v>-0.03407074138522148</v>
       </c>
       <c r="AZ2">
-        <v>-0.0269110482186079</v>
+        <v>-0.02729657106101513</v>
       </c>
       <c r="BA2">
-        <v>-0.003819725243374705</v>
+        <v>-0.006788687314838171</v>
       </c>
       <c r="BB2">
-        <v>0.0659627690911293</v>
+        <v>0.06753183156251907</v>
       </c>
       <c r="BC2">
-        <v>-0.0104210888966918</v>
+        <v>-0.006470164749771357</v>
       </c>
       <c r="BD2">
-        <v>0.05578374117612839</v>
+        <v>0.05555254593491554</v>
       </c>
       <c r="BE2">
-        <v>0.001424025045707822</v>
+        <v>-0.001054241671226919</v>
       </c>
       <c r="BF2">
-        <v>0.02735638245940208</v>
+        <v>0.03024081327021122</v>
       </c>
       <c r="BG2">
-        <v>-0.04174677282571793</v>
+        <v>-0.04251530021429062</v>
       </c>
       <c r="BH2">
-        <v>-0.003740535117685795</v>
+        <v>-0.001238085678778589</v>
       </c>
       <c r="BI2">
-        <v>0.008294385857880116</v>
+        <v>0.00888374075293541</v>
       </c>
       <c r="BJ2">
-        <v>0.05325909331440926</v>
+        <v>0.05282577872276306</v>
       </c>
       <c r="BK2">
-        <v>0.007770524360239506</v>
+        <v>0.005086561664938927</v>
       </c>
       <c r="BL2">
-        <v>0.02082561515271664</v>
+        <v>0.02574553899466991</v>
       </c>
       <c r="BM2">
-        <v>0.0336957573890686</v>
+        <v>0.03138571977615356</v>
       </c>
       <c r="BN2">
-        <v>0.001075911684893072</v>
+        <v>-0.01031154580414295</v>
       </c>
       <c r="BO2">
-        <v>0.05383144319057465</v>
+        <v>0.05866400897502899</v>
       </c>
       <c r="BP2">
-        <v>0.0260465070605278</v>
+        <v>0.01832439564168453</v>
       </c>
       <c r="BQ2">
-        <v>-0.0349024161696434</v>
+        <v>-0.02976270951330662</v>
       </c>
       <c r="BR2">
-        <v>0.002625641645863652</v>
+        <v>0.0006421390571631491</v>
       </c>
       <c r="BS2">
-        <v>-0.0044106375426054</v>
+        <v>0.001162009313702583</v>
       </c>
       <c r="BT2">
-        <v>-0.006565437186509371</v>
+        <v>-0.003113416023552418</v>
       </c>
       <c r="BU2">
-        <v>-0.01476979907602072</v>
+        <v>-0.01615356653928757</v>
       </c>
       <c r="BV2">
-        <v>-0.1249036639928818</v>
+        <v>-0.1265271306037903</v>
       </c>
       <c r="BW2">
-        <v>-0.009820633567869663</v>
+        <v>-0.01371350232511759</v>
       </c>
       <c r="BX2">
-        <v>-0.1205759719014168</v>
+        <v>-0.1160145550966263</v>
       </c>
       <c r="BY2">
-        <v>-0.001100698602385819</v>
+        <v>-0.004485737532377243</v>
       </c>
       <c r="BZ2">
-        <v>0.1842916011810303</v>
+        <v>0.1857292354106903</v>
       </c>
       <c r="CA2">
-        <v>0.02547147870063782</v>
+        <v>0.02459324337542057</v>
       </c>
       <c r="CB2">
-        <v>-0.01684041693806648</v>
+        <v>-0.01400348544120789</v>
       </c>
       <c r="CC2">
-        <v>-0.0002256574225611985</v>
+        <v>6.146479427115992E-05</v>
       </c>
       <c r="CD2">
-        <v>0.008099297061562538</v>
+        <v>0.005012121051549911</v>
       </c>
       <c r="CE2">
-        <v>-0.09774760901927948</v>
+        <v>-0.1002123281359673</v>
       </c>
       <c r="CF2">
-        <v>-0.03732078894972801</v>
+        <v>-0.03445406258106232</v>
       </c>
       <c r="CG2">
-        <v>0.05732987821102142</v>
+        <v>0.05874661728739738</v>
       </c>
       <c r="CH2">
-        <v>0.05937501788139343</v>
+        <v>0.06696097552776337</v>
       </c>
       <c r="CI2">
-        <v>-0.03383518010377884</v>
+        <v>-0.03332523256540298</v>
       </c>
       <c r="CJ2">
-        <v>-0.07007406651973724</v>
+        <v>-0.06119579449295998</v>
       </c>
       <c r="CK2">
-        <v>0.001686492119915783</v>
+        <v>-0.001312980544753373</v>
       </c>
       <c r="CL2">
-        <v>-0.003713778685778379</v>
+        <v>-0.0028162756934762</v>
       </c>
       <c r="CM2">
-        <v>-0.002227927558124065</v>
+        <v>-0.004601479042321444</v>
       </c>
       <c r="CN2">
-        <v>0.001249736291356385</v>
+        <v>-0.006640173960477114</v>
       </c>
       <c r="CO2">
-        <v>0.001412437413819134</v>
+        <v>0.002775736851617694</v>
       </c>
       <c r="CP2">
-        <v>-0.03671958670020103</v>
+        <v>-0.03202354162931442</v>
       </c>
       <c r="CQ2">
-        <v>0.05458907783031464</v>
+        <v>0.05011624470353127</v>
       </c>
       <c r="CR2">
-        <v>0.005938416346907616</v>
+        <v>-0.0003545754007063806</v>
       </c>
       <c r="CS2">
-        <v>-0.001685776165686548</v>
+        <v>-0.002529058139771223</v>
       </c>
       <c r="CT2">
-        <v>-0.009262819774448872</v>
+        <v>-0.008186462335288525</v>
       </c>
       <c r="CU2">
-        <v>0.002756712958216667</v>
+        <v>0.002343748928979039</v>
       </c>
       <c r="CV2">
-        <v>0.01255108695477247</v>
+        <v>0.008388840593397617</v>
       </c>
       <c r="CW2">
-        <v>-0.09578538686037064</v>
+        <v>-0.09656844288110733</v>
       </c>
       <c r="CX2">
-        <v>-0.008235599845647812</v>
+        <v>-0.01038606464862823</v>
       </c>
       <c r="CY2">
-        <v>-0.01103711407631636</v>
+        <v>-0.01100633107125759</v>
       </c>
       <c r="CZ2">
-        <v>0.007751715835183859</v>
+        <v>0.007662704680114985</v>
       </c>
       <c r="DA2">
-        <v>-0.1187615767121315</v>
+        <v>-0.1125766485929489</v>
       </c>
       <c r="DB2">
-        <v>0.001215600990690291</v>
+        <v>0.007614048197865486</v>
       </c>
       <c r="DC2">
-        <v>0.00507021090015769</v>
+        <v>-0.001886144047603011</v>
       </c>
       <c r="DD2">
-        <v>0.09585263580083847</v>
+        <v>0.09981325268745422</v>
       </c>
       <c r="DE2">
-        <v>0.007787239272147417</v>
+        <v>0.008652623742818832</v>
       </c>
       <c r="DF2">
-        <v>0.08428093791007996</v>
+        <v>0.08609852939844131</v>
       </c>
       <c r="DG2">
-        <v>-0.01063358411192894</v>
+        <v>-0.005256466567516327</v>
       </c>
       <c r="DH2">
-        <v>-0.04738375917077065</v>
+        <v>-0.04848892986774445</v>
       </c>
       <c r="DI2">
-        <v>-0.01742230728268623</v>
+        <v>-0.01671478152275085</v>
       </c>
       <c r="DJ2">
-        <v>0.1095829978585243</v>
+        <v>0.1064504384994507</v>
       </c>
       <c r="DK2">
-        <v>-0.1479261964559555</v>
+        <v>-0.146818220615387</v>
       </c>
       <c r="DL2">
-        <v>-0.07863582670688629</v>
+        <v>-0.08176924288272858</v>
       </c>
       <c r="DM2">
-        <v>-0.09015032649040222</v>
+        <v>-0.08970741182565689</v>
       </c>
       <c r="DN2">
-        <v>0.06978971511125565</v>
+        <v>0.06886111199855804</v>
       </c>
       <c r="DO2">
-        <v>0.04424272105097771</v>
+        <v>0.04041014984250069</v>
       </c>
       <c r="DP2">
-        <v>0.01465710997581482</v>
+        <v>0.0136275477707386</v>
       </c>
       <c r="DQ2">
-        <v>0.002361146733164787</v>
+        <v>0.002829920966178179</v>
       </c>
       <c r="DR2">
-        <v>-0.006023437716066837</v>
+        <v>-0.01039154455065727</v>
       </c>
       <c r="DS2">
-        <v>-0.03934020549058914</v>
+        <v>-0.04076676070690155</v>
       </c>
       <c r="DT2">
-        <v>0.08211518079042435</v>
+        <v>0.07516518980264664</v>
       </c>
       <c r="DU2">
-        <v>0.02562518604099751</v>
+        <v>0.02709534391760826</v>
       </c>
       <c r="DV2">
-        <v>-0.0003525229403749108</v>
+        <v>0.007540277205407619</v>
       </c>
       <c r="DW2">
-        <v>-0.003221614519134164</v>
+        <v>0.004992389120161533</v>
       </c>
       <c r="DX2">
-        <v>-0.02112953178584576</v>
+        <v>-0.02190113253891468</v>
       </c>
       <c r="DY2">
-        <v>0.04084586724638939</v>
+        <v>0.04747188091278076</v>
       </c>
       <c r="DZ2">
-        <v>-0.001606701174750924</v>
+        <v>0.0002303307555848733</v>
       </c>
       <c r="EA2">
-        <v>0.04529602453112602</v>
+        <v>0.05209015682339668</v>
       </c>
       <c r="EB2">
-        <v>0.0671800896525383</v>
+        <v>0.06596335768699646</v>
       </c>
       <c r="EC2">
-        <v>-0.003485017688944936</v>
+        <v>-0.009459022432565689</v>
       </c>
       <c r="ED2">
-        <v>0.01643034815788269</v>
+        <v>0.01619914546608925</v>
       </c>
       <c r="EE2">
-        <v>0.001098421053029597</v>
+        <v>0.001481328974477947</v>
       </c>
       <c r="EF2">
-        <v>0.06683087348937988</v>
+        <v>0.0619448646903038</v>
       </c>
       <c r="EG2">
-        <v>0.01326072309166193</v>
+        <v>0.006906422320753336</v>
       </c>
       <c r="EH2">
-        <v>0.004229757003486156</v>
+        <v>0.01006741356104612</v>
       </c>
       <c r="EI2">
-        <v>0.07449425011873245</v>
+        <v>0.0742192342877388</v>
       </c>
       <c r="EJ2">
-        <v>-0.0453774593770504</v>
+        <v>-0.04634528607130051</v>
       </c>
       <c r="EK2">
-        <v>-0.003251101355999708</v>
+        <v>-0.00283614918589592</v>
       </c>
       <c r="EL2">
-        <v>-0.002095403149724007</v>
+        <v>-0.001801973441615701</v>
       </c>
       <c r="EM2">
-        <v>-0.0576057955622673</v>
+        <v>-0.06591717153787613</v>
       </c>
       <c r="EN2">
-        <v>-0.04476472362875938</v>
+        <v>-0.04856656119227409</v>
       </c>
       <c r="EO2">
-        <v>0.04777670279145241</v>
+        <v>0.04946154356002808</v>
       </c>
       <c r="EP2">
-        <v>0.008595040999352932</v>
+        <v>0.007783620618283749</v>
       </c>
       <c r="EQ2">
-        <v>0.05740893259644508</v>
+        <v>0.05694741010665894</v>
       </c>
       <c r="ER2">
-        <v>-0.001879588817246258</v>
+        <v>-0.001514030620455742</v>
       </c>
       <c r="ES2">
-        <v>-0.006911780685186386</v>
+        <v>-0.002256611129269004</v>
       </c>
       <c r="ET2">
-        <v>-0.05796926096081734</v>
+        <v>-0.05319344252347946</v>
       </c>
       <c r="EU2">
-        <v>-0.03705920279026031</v>
+        <v>-0.04531095921993256</v>
       </c>
       <c r="EV2">
-        <v>-0.06255828589200974</v>
+        <v>-0.06272090971469879</v>
       </c>
       <c r="EW2">
-        <v>0.05719689652323723</v>
+        <v>0.05659355968236923</v>
       </c>
       <c r="EX2">
-        <v>-0.0634143054485321</v>
+        <v>-0.05528772994875908</v>
       </c>
       <c r="EY2">
-        <v>0.01867726072669029</v>
+        <v>0.01614033430814743</v>
       </c>
       <c r="EZ2">
-        <v>-0.1457716673612595</v>
+        <v>-0.1449238508939743</v>
       </c>
       <c r="FA2">
-        <v>0.004240336827933788</v>
+        <v>0.0002513444924261421</v>
       </c>
       <c r="FB2">
-        <v>-0.0007335670525208116</v>
+        <v>0.000138040806632489</v>
       </c>
       <c r="FC2">
-        <v>-0.02977394498884678</v>
+        <v>-0.03000723198056221</v>
       </c>
       <c r="FD2">
-        <v>-0.007535210344940424</v>
+        <v>-0.007376343943178654</v>
       </c>
       <c r="FE2">
-        <v>0.02511565014719963</v>
+        <v>0.0217724833637476</v>
       </c>
       <c r="FF2">
-        <v>-0.0464382991194725</v>
+        <v>-0.04875851422548294</v>
       </c>
       <c r="FG2">
-        <v>-0.0225658230483532</v>
+        <v>-0.01907344721257687</v>
       </c>
       <c r="FH2">
-        <v>0.000961747020483017</v>
+        <v>-0.004047136288136244</v>
       </c>
       <c r="FI2">
-        <v>0.003725997405126691</v>
+        <v>-0.001341926748864353</v>
       </c>
       <c r="FJ2">
-        <v>-0.01815741509199142</v>
+        <v>-0.02433747239410877</v>
       </c>
       <c r="FK2">
-        <v>0.003359150839969516</v>
+        <v>0.004011104814708233</v>
       </c>
       <c r="FL2">
-        <v>-0.1067680269479752</v>
+        <v>-0.1111131682991982</v>
       </c>
       <c r="FM2">
-        <v>0.06470075249671936</v>
+        <v>0.06184638291597366</v>
       </c>
       <c r="FN2">
-        <v>0.04453548043966293</v>
+        <v>0.04998541995882988</v>
       </c>
       <c r="FO2">
-        <v>0.005022614262998104</v>
+        <v>-0.003569847904145718</v>
       </c>
       <c r="FP2">
-        <v>0.008061802014708519</v>
+        <v>0.003265154082328081</v>
       </c>
       <c r="FQ2">
-        <v>0.003297817427664995</v>
+        <v>0.003901876742020249</v>
       </c>
       <c r="FR2">
-        <v>-0.003289403393864632</v>
+        <v>-0.002777799498289824</v>
       </c>
       <c r="FS2">
-        <v>-0.0008719778852537274</v>
+        <v>0.0005231208051554859</v>
       </c>
       <c r="FT2">
-        <v>-0.0003610513231251389</v>
+        <v>0.0001522961538285017</v>
       </c>
       <c r="FU2">
-        <v>0.03874829411506653</v>
+        <v>0.03798482939600945</v>
       </c>
       <c r="FV2">
-        <v>0.02315211296081543</v>
+        <v>0.02064290829002857</v>
       </c>
       <c r="FW2">
-        <v>-0.0227088276296854</v>
+        <v>-0.02054957300424576</v>
       </c>
       <c r="FX2">
-        <v>-0.003012661822140217</v>
+        <v>0.002007797360420227</v>
       </c>
       <c r="FY2">
-        <v>-0.007717878557741642</v>
+        <v>-0.005880251526832581</v>
       </c>
       <c r="FZ2">
-        <v>0.01411995384842157</v>
+        <v>0.01025484874844551</v>
       </c>
       <c r="GA2">
-        <v>0.05615571141242981</v>
+        <v>0.05101842060685158</v>
       </c>
       <c r="GB2">
-        <v>0.00322320475243032</v>
+        <v>0.006833686027675867</v>
       </c>
       <c r="GC2">
-        <v>-0.03033110126852989</v>
+        <v>-0.03178801387548447</v>
       </c>
       <c r="GD2">
-        <v>-0.007350661791861057</v>
+        <v>-0.005194415338337421</v>
       </c>
       <c r="GE2">
-        <v>0.007476338651031256</v>
+        <v>0.007145851384848356</v>
       </c>
       <c r="GF2">
-        <v>-0.03529481589794159</v>
+        <v>-0.03273263573646545</v>
       </c>
       <c r="GG2">
-        <v>-0.1114175319671631</v>
+        <v>-0.1040784046053886</v>
       </c>
       <c r="GH2">
-        <v>-0.006223191041499376</v>
+        <v>0.0001870989799499512</v>
       </c>
       <c r="GI2">
-        <v>-0.09286130964756012</v>
+        <v>-0.0948607325553894</v>
       </c>
       <c r="GJ2">
-        <v>-0.003964141011238098</v>
+        <v>0.0008455991046503186</v>
       </c>
       <c r="GK2">
-        <v>-0.09179675579071045</v>
+        <v>-0.09658637642860413</v>
       </c>
       <c r="GL2">
-        <v>-0.130277007818222</v>
+        <v>-0.138209342956543</v>
       </c>
       <c r="GM2">
-        <v>-0.002875556005164981</v>
+        <v>-0.001880556810647249</v>
       </c>
       <c r="GN2">
-        <v>-0.08586087822914124</v>
+        <v>-0.08776763826608658</v>
       </c>
       <c r="GO2">
-        <v>0.07481138408184052</v>
+        <v>0.07383297383785248</v>
       </c>
       <c r="GP2">
-        <v>0.002473124535754323</v>
+        <v>0.002207252196967602</v>
       </c>
       <c r="GQ2">
-        <v>-0.005296703893691301</v>
+        <v>-0.001153663615696132</v>
       </c>
       <c r="GR2">
-        <v>-0.00324773951433599</v>
+        <v>-0.003447015304118395</v>
       </c>
       <c r="GS2">
-        <v>-0.008072868920862675</v>
+        <v>-0.01184280589222908</v>
       </c>
       <c r="GT2">
-        <v>0.007701418362557888</v>
+        <v>0.001985043054446578</v>
       </c>
       <c r="GU2">
-        <v>-0.01206608861684799</v>
+        <v>-0.01158047933131456</v>
       </c>
       <c r="GV2">
-        <v>-0.002142813056707382</v>
+        <v>0.00293054454959929</v>
       </c>
       <c r="GW2">
-        <v>0.06507839262485504</v>
+        <v>0.06139421090483665</v>
       </c>
       <c r="GX2">
-        <v>-0.0005708093522116542</v>
+        <v>-0.00211395975202322</v>
       </c>
       <c r="GY2">
-        <v>0.008093417622148991</v>
+        <v>0.007850689813494682</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Automobiles.xlsx
+++ b/static/Models/Regression/Equation/Automobiles.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.02036180905997753</v>
+        <v>-0.01911509037017822</v>
       </c>
       <c r="C2">
-        <v>-0.1060496643185616</v>
+        <v>-0.1085038185119629</v>
       </c>
       <c r="D2">
-        <v>-0.08793163299560547</v>
+        <v>-0.09396392852067947</v>
       </c>
       <c r="E2">
-        <v>0.02950927801430225</v>
+        <v>0.03166783228516579</v>
       </c>
       <c r="F2">
-        <v>-0.004604753106832504</v>
+        <v>-0.005804318003356457</v>
       </c>
       <c r="G2">
-        <v>-0.006453659851104021</v>
+        <v>-0.001403439091518521</v>
       </c>
       <c r="H2">
-        <v>0.006232602056115866</v>
+        <v>-0.003967581782490015</v>
       </c>
       <c r="I2">
-        <v>-0.004435316659510136</v>
+        <v>-0.005582105834037066</v>
       </c>
       <c r="J2">
-        <v>-0.1814281493425369</v>
+        <v>-0.1846771240234375</v>
       </c>
       <c r="K2">
-        <v>0.0007351741660386324</v>
+        <v>-0.007001390215009451</v>
       </c>
       <c r="L2">
-        <v>0.004327129572629929</v>
+        <v>0.005196195561438799</v>
       </c>
       <c r="M2">
-        <v>2.817033237079158E-05</v>
+        <v>-0.000502019829582423</v>
       </c>
       <c r="N2">
-        <v>0.007607914973050356</v>
+        <v>0.009390748105943203</v>
       </c>
       <c r="O2">
-        <v>0.06023984774947166</v>
+        <v>0.05998240038752556</v>
       </c>
       <c r="P2">
-        <v>0.06363844126462936</v>
+        <v>0.06718907505273819</v>
       </c>
       <c r="Q2">
-        <v>-0.0260264091193676</v>
+        <v>-0.02881450578570366</v>
       </c>
       <c r="R2">
-        <v>-0.02387060411274433</v>
+        <v>-0.01872964762151241</v>
       </c>
       <c r="S2">
-        <v>0.02612726576626301</v>
+        <v>0.02498984895646572</v>
       </c>
       <c r="T2">
-        <v>0.04693902283906937</v>
+        <v>0.04505983367562294</v>
       </c>
       <c r="U2">
-        <v>0.01552807353436947</v>
+        <v>0.01273923553526402</v>
       </c>
       <c r="V2">
-        <v>-0.003800727659836411</v>
+        <v>-0.008563539944589138</v>
       </c>
       <c r="W2">
-        <v>0.08291947096586227</v>
+        <v>0.08374694734811783</v>
       </c>
       <c r="X2">
-        <v>0.005090303253382444</v>
+        <v>0.009037715382874012</v>
       </c>
       <c r="Y2">
-        <v>-0.04400606825947762</v>
+        <v>-0.04461128264665604</v>
       </c>
       <c r="Z2">
-        <v>-0.04069307446479797</v>
+        <v>-0.03671827912330627</v>
       </c>
       <c r="AA2">
-        <v>0.01314876321703196</v>
+        <v>0.01588085852563381</v>
       </c>
       <c r="AB2">
-        <v>0.03314436599612236</v>
+        <v>0.03904268145561218</v>
       </c>
       <c r="AC2">
-        <v>-0.0434589684009552</v>
+        <v>-0.04326072335243225</v>
       </c>
       <c r="AD2">
-        <v>-0.1192283108830452</v>
+        <v>-0.1199260428547859</v>
       </c>
       <c r="AE2">
-        <v>-0.05352435261011124</v>
+        <v>-0.0462445393204689</v>
       </c>
       <c r="AF2">
-        <v>-0.00165489490609616</v>
+        <v>-0.003766287118196487</v>
       </c>
       <c r="AG2">
-        <v>-0.0203035082668066</v>
+        <v>-0.02023699879646301</v>
       </c>
       <c r="AH2">
-        <v>-0.02122060023248196</v>
+        <v>-0.02178657427430153</v>
       </c>
       <c r="AI2">
-        <v>0.02862648107111454</v>
+        <v>0.02231203950941563</v>
       </c>
       <c r="AJ2">
-        <v>0.01416498981416225</v>
+        <v>0.01512639503926039</v>
       </c>
       <c r="AK2">
-        <v>0.001654838444665074</v>
+        <v>0.009265734814107418</v>
       </c>
       <c r="AL2">
-        <v>0.001726415473967791</v>
+        <v>-0.002283381065353751</v>
       </c>
       <c r="AM2">
-        <v>-0.04442192614078522</v>
+        <v>-0.03040827065706253</v>
       </c>
       <c r="AN2">
-        <v>-0.0662609189748764</v>
+        <v>-0.0688781663775444</v>
       </c>
       <c r="AO2">
-        <v>0.0177006796002388</v>
+        <v>0.01913055777549744</v>
       </c>
       <c r="AP2">
-        <v>0.08843841403722763</v>
+        <v>0.08216255158185959</v>
       </c>
       <c r="AQ2">
-        <v>-0.008066494949162006</v>
+        <v>-0.005758268758654594</v>
       </c>
       <c r="AR2">
-        <v>0.03824195265769958</v>
+        <v>0.04080865532159805</v>
       </c>
       <c r="AS2">
-        <v>0.02794869057834148</v>
+        <v>0.02660129033029079</v>
       </c>
       <c r="AT2">
-        <v>0.01126526389271021</v>
+        <v>0.01047639269381762</v>
       </c>
       <c r="AU2">
-        <v>0.01073588896542788</v>
+        <v>0.01302899606525898</v>
       </c>
       <c r="AV2">
-        <v>-0.02520791999995708</v>
+        <v>-0.02622778341174126</v>
       </c>
       <c r="AW2">
-        <v>0.02660565450787544</v>
+        <v>0.0291628148406744</v>
       </c>
       <c r="AX2">
-        <v>-0.03145374730229378</v>
+        <v>-0.02898041717708111</v>
       </c>
       <c r="AY2">
-        <v>-0.03407074138522148</v>
+        <v>-0.03583073243498802</v>
       </c>
       <c r="AZ2">
-        <v>-0.02729657106101513</v>
+        <v>-0.0366104319691658</v>
       </c>
       <c r="BA2">
-        <v>-0.006788687314838171</v>
+        <v>-0.008606905117630959</v>
       </c>
       <c r="BB2">
-        <v>0.06753183156251907</v>
+        <v>0.06539296358823776</v>
       </c>
       <c r="BC2">
-        <v>-0.006470164749771357</v>
+        <v>-0.00829353928565979</v>
       </c>
       <c r="BD2">
-        <v>0.05555254593491554</v>
+        <v>0.05431854352355003</v>
       </c>
       <c r="BE2">
-        <v>-0.001054241671226919</v>
+        <v>-0.003927685786038637</v>
       </c>
       <c r="BF2">
-        <v>0.03024081327021122</v>
+        <v>0.02749367244541645</v>
       </c>
       <c r="BG2">
-        <v>-0.04251530021429062</v>
+        <v>-0.04343527927994728</v>
       </c>
       <c r="BH2">
-        <v>-0.001238085678778589</v>
+        <v>0.001271580811589956</v>
       </c>
       <c r="BI2">
-        <v>0.00888374075293541</v>
+        <v>0.006990924477577209</v>
       </c>
       <c r="BJ2">
-        <v>0.05282577872276306</v>
+        <v>0.04383375495672226</v>
       </c>
       <c r="BK2">
-        <v>0.005086561664938927</v>
+        <v>0.003443870693445206</v>
       </c>
       <c r="BL2">
-        <v>0.02574553899466991</v>
+        <v>0.02602076716721058</v>
       </c>
       <c r="BM2">
-        <v>0.03138571977615356</v>
+        <v>0.02685531601309776</v>
       </c>
       <c r="BN2">
-        <v>-0.01031154580414295</v>
+        <v>-0.00737850833684206</v>
       </c>
       <c r="BO2">
-        <v>0.05866400897502899</v>
+        <v>0.05598334968090057</v>
       </c>
       <c r="BP2">
-        <v>0.01832439564168453</v>
+        <v>0.01979744248092175</v>
       </c>
       <c r="BQ2">
-        <v>-0.02976270951330662</v>
+        <v>-0.02551252208650112</v>
       </c>
       <c r="BR2">
-        <v>0.0006421390571631491</v>
+        <v>0.0002897752856370062</v>
       </c>
       <c r="BS2">
-        <v>0.001162009313702583</v>
+        <v>-0.00178248668089509</v>
       </c>
       <c r="BT2">
-        <v>-0.003113416023552418</v>
+        <v>6.803289579693228E-05</v>
       </c>
       <c r="BU2">
-        <v>-0.01615356653928757</v>
+        <v>-0.01734520308673382</v>
       </c>
       <c r="BV2">
-        <v>-0.1265271306037903</v>
+        <v>-0.1222370490431786</v>
       </c>
       <c r="BW2">
-        <v>-0.01371350232511759</v>
+        <v>-0.008568008430302143</v>
       </c>
       <c r="BX2">
-        <v>-0.1160145550966263</v>
+        <v>-0.119115985929966</v>
       </c>
       <c r="BY2">
-        <v>-0.004485737532377243</v>
+        <v>0.0003561366756912321</v>
       </c>
       <c r="BZ2">
-        <v>0.1857292354106903</v>
+        <v>0.1838554292917252</v>
       </c>
       <c r="CA2">
-        <v>0.02459324337542057</v>
+        <v>0.02759278565645218</v>
       </c>
       <c r="CB2">
-        <v>-0.01400348544120789</v>
+        <v>-0.01762492768466473</v>
       </c>
       <c r="CC2">
-        <v>6.146479427115992E-05</v>
+        <v>-0.0009645831887610257</v>
       </c>
       <c r="CD2">
-        <v>0.005012121051549911</v>
+        <v>0.008109469898045063</v>
       </c>
       <c r="CE2">
-        <v>-0.1002123281359673</v>
+        <v>-0.1012275889515877</v>
       </c>
       <c r="CF2">
-        <v>-0.03445406258106232</v>
+        <v>-0.03929939866065979</v>
       </c>
       <c r="CG2">
-        <v>0.05874661728739738</v>
+        <v>0.06116291880607605</v>
       </c>
       <c r="CH2">
-        <v>0.06696097552776337</v>
+        <v>0.06319080293178558</v>
       </c>
       <c r="CI2">
-        <v>-0.03332523256540298</v>
+        <v>-0.0344969742000103</v>
       </c>
       <c r="CJ2">
-        <v>-0.06119579449295998</v>
+        <v>-0.0544133260846138</v>
       </c>
       <c r="CK2">
-        <v>-0.001312980544753373</v>
+        <v>-0.002804228570312262</v>
       </c>
       <c r="CL2">
-        <v>-0.0028162756934762</v>
+        <v>-0.003418112173676491</v>
       </c>
       <c r="CM2">
-        <v>-0.004601479042321444</v>
+        <v>-0.005488728638738394</v>
       </c>
       <c r="CN2">
-        <v>-0.006640173960477114</v>
+        <v>-0.008932072669267654</v>
       </c>
       <c r="CO2">
-        <v>0.002775736851617694</v>
+        <v>0.000758186390157789</v>
       </c>
       <c r="CP2">
-        <v>-0.03202354162931442</v>
+        <v>-0.03871460258960724</v>
       </c>
       <c r="CQ2">
-        <v>0.05011624470353127</v>
+        <v>0.04976635053753853</v>
       </c>
       <c r="CR2">
-        <v>-0.0003545754007063806</v>
+        <v>0.003805463667958975</v>
       </c>
       <c r="CS2">
-        <v>-0.002529058139771223</v>
+        <v>-0.002167869592085481</v>
       </c>
       <c r="CT2">
-        <v>-0.008186462335288525</v>
+        <v>-0.008981579914689064</v>
       </c>
       <c r="CU2">
-        <v>0.002343748928979039</v>
+        <v>0.003246944397687912</v>
       </c>
       <c r="CV2">
-        <v>0.008388840593397617</v>
+        <v>0.01638444699347019</v>
       </c>
       <c r="CW2">
-        <v>-0.09656844288110733</v>
+        <v>-0.09930030256509781</v>
       </c>
       <c r="CX2">
-        <v>-0.01038606464862823</v>
+        <v>-0.006355185527354479</v>
       </c>
       <c r="CY2">
-        <v>-0.01100633107125759</v>
+        <v>-0.00752177694812417</v>
       </c>
       <c r="CZ2">
-        <v>0.007662704680114985</v>
+        <v>0.007317705079913139</v>
       </c>
       <c r="DA2">
-        <v>-0.1125766485929489</v>
+        <v>-0.1100484058260918</v>
       </c>
       <c r="DB2">
-        <v>0.007614048197865486</v>
+        <v>0.004402655642479658</v>
       </c>
       <c r="DC2">
-        <v>-0.001886144047603011</v>
+        <v>0.001887803664430976</v>
       </c>
       <c r="DD2">
-        <v>0.09981325268745422</v>
+        <v>0.09688538312911987</v>
       </c>
       <c r="DE2">
-        <v>0.008652623742818832</v>
+        <v>0.008273986168205738</v>
       </c>
       <c r="DF2">
-        <v>0.08609852939844131</v>
+        <v>0.08510532230138779</v>
       </c>
       <c r="DG2">
-        <v>-0.005256466567516327</v>
+        <v>0.001906269695609808</v>
       </c>
       <c r="DH2">
-        <v>-0.04848892986774445</v>
+        <v>-0.04895101860165596</v>
       </c>
       <c r="DI2">
-        <v>-0.01671478152275085</v>
+        <v>-0.01580622978508472</v>
       </c>
       <c r="DJ2">
-        <v>0.1064504384994507</v>
+        <v>0.1025286093354225</v>
       </c>
       <c r="DK2">
-        <v>-0.146818220615387</v>
+        <v>-0.139160692691803</v>
       </c>
       <c r="DL2">
-        <v>-0.08176924288272858</v>
+        <v>-0.08640480786561966</v>
       </c>
       <c r="DM2">
-        <v>-0.08970741182565689</v>
+        <v>-0.09855934232473373</v>
       </c>
       <c r="DN2">
-        <v>0.06886111199855804</v>
+        <v>0.06801685690879822</v>
       </c>
       <c r="DO2">
-        <v>0.04041014984250069</v>
+        <v>0.04645606502890587</v>
       </c>
       <c r="DP2">
-        <v>0.0136275477707386</v>
+        <v>0.01506789214909077</v>
       </c>
       <c r="DQ2">
-        <v>0.002829920966178179</v>
+        <v>0.001602997072041035</v>
       </c>
       <c r="DR2">
-        <v>-0.01039154455065727</v>
+        <v>-0.004749676678329706</v>
       </c>
       <c r="DS2">
-        <v>-0.04076676070690155</v>
+        <v>-0.04245447367429733</v>
       </c>
       <c r="DT2">
-        <v>0.07516518980264664</v>
+        <v>0.07080560177564621</v>
       </c>
       <c r="DU2">
-        <v>0.02709534391760826</v>
+        <v>0.02698525786399841</v>
       </c>
       <c r="DV2">
-        <v>0.007540277205407619</v>
+        <v>0.002252549864351749</v>
       </c>
       <c r="DW2">
-        <v>0.004992389120161533</v>
+        <v>-0.003783996915444732</v>
       </c>
       <c r="DX2">
-        <v>-0.02190113253891468</v>
+        <v>-0.02274256199598312</v>
       </c>
       <c r="DY2">
-        <v>0.04747188091278076</v>
+        <v>0.05158564448356628</v>
       </c>
       <c r="DZ2">
-        <v>0.0002303307555848733</v>
+        <v>-0.001222790102474391</v>
       </c>
       <c r="EA2">
-        <v>0.05209015682339668</v>
+        <v>0.06044069305062294</v>
       </c>
       <c r="EB2">
-        <v>0.06596335768699646</v>
+        <v>0.06528372317552567</v>
       </c>
       <c r="EC2">
-        <v>-0.009459022432565689</v>
+        <v>0.0007946278201416135</v>
       </c>
       <c r="ED2">
-        <v>0.01619914546608925</v>
+        <v>0.01407370157539845</v>
       </c>
       <c r="EE2">
-        <v>0.001481328974477947</v>
+        <v>0.001814019866287708</v>
       </c>
       <c r="EF2">
-        <v>0.0619448646903038</v>
+        <v>0.06441435962915421</v>
       </c>
       <c r="EG2">
-        <v>0.006906422320753336</v>
+        <v>0.01926168240606785</v>
       </c>
       <c r="EH2">
-        <v>0.01006741356104612</v>
+        <v>0.006292835343629122</v>
       </c>
       <c r="EI2">
-        <v>0.0742192342877388</v>
+        <v>0.07284880429506302</v>
       </c>
       <c r="EJ2">
-        <v>-0.04634528607130051</v>
+        <v>-0.05136896297335625</v>
       </c>
       <c r="EK2">
-        <v>-0.00283614918589592</v>
+        <v>-0.003688266268000007</v>
       </c>
       <c r="EL2">
-        <v>-0.001801973441615701</v>
+        <v>-0.003733244724571705</v>
       </c>
       <c r="EM2">
-        <v>-0.06591717153787613</v>
+        <v>-0.06348741054534912</v>
       </c>
       <c r="EN2">
-        <v>-0.04856656119227409</v>
+        <v>-0.047831941395998</v>
       </c>
       <c r="EO2">
-        <v>0.04946154356002808</v>
+        <v>0.04791172221302986</v>
       </c>
       <c r="EP2">
-        <v>0.007783620618283749</v>
+        <v>0.007526494096964598</v>
       </c>
       <c r="EQ2">
-        <v>0.05694741010665894</v>
+        <v>0.0587211474776268</v>
       </c>
       <c r="ER2">
-        <v>-0.001514030620455742</v>
+        <v>-0.004943257197737694</v>
       </c>
       <c r="ES2">
-        <v>-0.002256611129269004</v>
+        <v>-0.006506795063614845</v>
       </c>
       <c r="ET2">
-        <v>-0.05319344252347946</v>
+        <v>-0.05200982838869095</v>
       </c>
       <c r="EU2">
-        <v>-0.04531095921993256</v>
+        <v>-0.04495114833116531</v>
       </c>
       <c r="EV2">
-        <v>-0.06272090971469879</v>
+        <v>-0.06607762724161148</v>
       </c>
       <c r="EW2">
-        <v>0.05659355968236923</v>
+        <v>0.05434537306427956</v>
       </c>
       <c r="EX2">
-        <v>-0.05528772994875908</v>
+        <v>-0.05531764402985573</v>
       </c>
       <c r="EY2">
-        <v>0.01614033430814743</v>
+        <v>0.01401119772344828</v>
       </c>
       <c r="EZ2">
-        <v>-0.1449238508939743</v>
+        <v>-0.1511172652244568</v>
       </c>
       <c r="FA2">
-        <v>0.0002513444924261421</v>
+        <v>-0.003675062675029039</v>
       </c>
       <c r="FB2">
-        <v>0.000138040806632489</v>
+        <v>6.170212145661935E-05</v>
       </c>
       <c r="FC2">
-        <v>-0.03000723198056221</v>
+        <v>-0.03049753047525883</v>
       </c>
       <c r="FD2">
-        <v>-0.007376343943178654</v>
+        <v>-0.007244278211146593</v>
       </c>
       <c r="FE2">
-        <v>0.0217724833637476</v>
+        <v>0.02536782622337341</v>
       </c>
       <c r="FF2">
-        <v>-0.04875851422548294</v>
+        <v>-0.05353326350450516</v>
       </c>
       <c r="FG2">
-        <v>-0.01907344721257687</v>
+        <v>-0.02250285446643829</v>
       </c>
       <c r="FH2">
-        <v>-0.004047136288136244</v>
+        <v>-0.001672517973929644</v>
       </c>
       <c r="FI2">
-        <v>-0.001341926748864353</v>
+        <v>0.005030679982155561</v>
       </c>
       <c r="FJ2">
-        <v>-0.02433747239410877</v>
+        <v>-0.01184546016156673</v>
       </c>
       <c r="FK2">
-        <v>0.004011104814708233</v>
+        <v>-0.001868573017418385</v>
       </c>
       <c r="FL2">
-        <v>-0.1111131682991982</v>
+        <v>-0.1121171340346336</v>
       </c>
       <c r="FM2">
-        <v>0.06184638291597366</v>
+        <v>0.06304527074098587</v>
       </c>
       <c r="FN2">
-        <v>0.04998541995882988</v>
+        <v>0.04952899366617203</v>
       </c>
       <c r="FO2">
-        <v>-0.003569847904145718</v>
+        <v>0.0002568934287410229</v>
       </c>
       <c r="FP2">
-        <v>0.003265154082328081</v>
+        <v>0.00259754853323102</v>
       </c>
       <c r="FQ2">
-        <v>0.003901876742020249</v>
+        <v>0.00186333036981523</v>
       </c>
       <c r="FR2">
-        <v>-0.002777799498289824</v>
+        <v>-0.004156503826379776</v>
       </c>
       <c r="FS2">
-        <v>0.0005231208051554859</v>
+        <v>-0.000433556386269629</v>
       </c>
       <c r="FT2">
-        <v>0.0001522961538285017</v>
+        <v>-0.001976911444216967</v>
       </c>
       <c r="FU2">
-        <v>0.03798482939600945</v>
+        <v>0.03536849841475487</v>
       </c>
       <c r="FV2">
-        <v>0.02064290829002857</v>
+        <v>0.01928840577602386</v>
       </c>
       <c r="FW2">
-        <v>-0.02054957300424576</v>
+        <v>-0.02244536578655243</v>
       </c>
       <c r="FX2">
-        <v>0.002007797360420227</v>
+        <v>0.008991166017949581</v>
       </c>
       <c r="FY2">
-        <v>-0.005880251526832581</v>
+        <v>-0.006498439237475395</v>
       </c>
       <c r="FZ2">
-        <v>0.01025484874844551</v>
+        <v>0.008777041919529438</v>
       </c>
       <c r="GA2">
-        <v>0.05101842060685158</v>
+        <v>0.0505516529083252</v>
       </c>
       <c r="GB2">
-        <v>0.006833686027675867</v>
+        <v>-0.0004899969208054245</v>
       </c>
       <c r="GC2">
-        <v>-0.03178801387548447</v>
+        <v>-0.02895617112517357</v>
       </c>
       <c r="GD2">
-        <v>-0.005194415338337421</v>
+        <v>-6.933213398951921E-07</v>
       </c>
       <c r="GE2">
-        <v>0.007145851384848356</v>
+        <v>0.005404687952250242</v>
       </c>
       <c r="GF2">
-        <v>-0.03273263573646545</v>
+        <v>-0.03511277958750725</v>
       </c>
       <c r="GG2">
-        <v>-0.1040784046053886</v>
+        <v>-0.1074860990047455</v>
       </c>
       <c r="GH2">
-        <v>0.0001870989799499512</v>
+        <v>-0.0004041159700136632</v>
       </c>
       <c r="GI2">
-        <v>-0.0948607325553894</v>
+        <v>-0.09750638157129288</v>
       </c>
       <c r="GJ2">
-        <v>0.0008455991046503186</v>
+        <v>-0.002411420689895749</v>
       </c>
       <c r="GK2">
-        <v>-0.09658637642860413</v>
+        <v>-0.09824236482381821</v>
       </c>
       <c r="GL2">
-        <v>-0.138209342956543</v>
+        <v>-0.1363993585109711</v>
       </c>
       <c r="GM2">
-        <v>-0.001880556810647249</v>
+        <v>-0.004594774916768074</v>
       </c>
       <c r="GN2">
-        <v>-0.08776763826608658</v>
+        <v>-0.09486082941293716</v>
       </c>
       <c r="GO2">
-        <v>0.07383297383785248</v>
+        <v>0.07416127622127533</v>
       </c>
       <c r="GP2">
-        <v>0.002207252196967602</v>
+        <v>0.0003550821857061237</v>
       </c>
       <c r="GQ2">
-        <v>-0.001153663615696132</v>
+        <v>-0.003041112329810858</v>
       </c>
       <c r="GR2">
-        <v>-0.003447015304118395</v>
+        <v>-0.009175184182822704</v>
       </c>
       <c r="GS2">
-        <v>-0.01184280589222908</v>
+        <v>-0.008846034295856953</v>
       </c>
       <c r="GT2">
-        <v>0.001985043054446578</v>
+        <v>0.003064446151256561</v>
       </c>
       <c r="GU2">
-        <v>-0.01158047933131456</v>
+        <v>-0.01090823113918304</v>
       </c>
       <c r="GV2">
-        <v>0.00293054454959929</v>
+        <v>0.003252035705372691</v>
       </c>
       <c r="GW2">
-        <v>0.06139421090483665</v>
+        <v>0.0616711862385273</v>
       </c>
       <c r="GX2">
-        <v>-0.00211395975202322</v>
+        <v>-0.00493117980659008</v>
       </c>
       <c r="GY2">
-        <v>0.007850689813494682</v>
+        <v>0.006946651730686426</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Automobiles.xlsx
+++ b/static/Models/Regression/Equation/Automobiles.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-0.01911509037017822</v>
+        <v>-0.02404220029711723</v>
       </c>
       <c r="C2">
-        <v>-0.1085038185119629</v>
+        <v>-0.1012875288724899</v>
       </c>
       <c r="D2">
-        <v>-0.09396392852067947</v>
+        <v>-0.08964547514915466</v>
       </c>
       <c r="E2">
-        <v>0.03166783228516579</v>
+        <v>0.02651903033256531</v>
       </c>
       <c r="F2">
-        <v>-0.005804318003356457</v>
+        <v>-0.009634380228817463</v>
       </c>
       <c r="G2">
-        <v>-0.001403439091518521</v>
+        <v>-0.005466743838042021</v>
       </c>
       <c r="H2">
-        <v>-0.003967581782490015</v>
+        <v>-0.0001020221752696671</v>
       </c>
       <c r="I2">
-        <v>-0.005582105834037066</v>
+        <v>-0.002907729940488935</v>
       </c>
       <c r="J2">
-        <v>-0.1846771240234375</v>
+        <v>-0.1848588138818741</v>
       </c>
       <c r="K2">
-        <v>-0.007001390215009451</v>
+        <v>-0.004166036378592253</v>
       </c>
       <c r="L2">
-        <v>0.005196195561438799</v>
+        <v>0.00419128080829978</v>
       </c>
       <c r="M2">
-        <v>-0.000502019829582423</v>
+        <v>-0.00438753655180335</v>
       </c>
       <c r="N2">
-        <v>0.009390748105943203</v>
+        <v>0.01207944843918085</v>
       </c>
       <c r="O2">
-        <v>0.05998240038752556</v>
+        <v>0.06830082833766937</v>
       </c>
       <c r="P2">
-        <v>0.06718907505273819</v>
+        <v>0.07640592008829117</v>
       </c>
       <c r="Q2">
-        <v>-0.02881450578570366</v>
+        <v>-0.02245110645890236</v>
       </c>
       <c r="R2">
-        <v>-0.01872964762151241</v>
+        <v>-0.006375615950673819</v>
       </c>
       <c r="S2">
-        <v>0.02498984895646572</v>
+        <v>0.0295785628259182</v>
       </c>
       <c r="T2">
-        <v>0.04505983367562294</v>
+        <v>0.0477752797305584</v>
       </c>
       <c r="U2">
-        <v>0.01273923553526402</v>
+        <v>0.01182553544640541</v>
       </c>
       <c r="V2">
-        <v>-0.008563539944589138</v>
+        <v>-0.008656580932438374</v>
       </c>
       <c r="W2">
-        <v>0.08374694734811783</v>
+        <v>0.08423620462417603</v>
       </c>
       <c r="X2">
-        <v>0.009037715382874012</v>
+        <v>0.005855964962393045</v>
       </c>
       <c r="Y2">
-        <v>-0.04461128264665604</v>
+        <v>-0.03778938949108124</v>
       </c>
       <c r="Z2">
-        <v>-0.03671827912330627</v>
+        <v>-0.03412848338484764</v>
       </c>
       <c r="AA2">
-        <v>0.01588085852563381</v>
+        <v>0.01202352810651064</v>
       </c>
       <c r="AB2">
-        <v>0.03904268145561218</v>
+        <v>0.03651456907391548</v>
       </c>
       <c r="AC2">
-        <v>-0.04326072335243225</v>
+        <v>-0.03984642401337624</v>
       </c>
       <c r="AD2">
-        <v>-0.1199260428547859</v>
+        <v>-0.1164955049753189</v>
       </c>
       <c r="AE2">
-        <v>-0.0462445393204689</v>
+        <v>-0.05861372500658035</v>
       </c>
       <c r="AF2">
-        <v>-0.003766287118196487</v>
+        <v>0.001987854484468699</v>
       </c>
       <c r="AG2">
-        <v>-0.02023699879646301</v>
+        <v>-0.01468464732170105</v>
       </c>
       <c r="AH2">
-        <v>-0.02178657427430153</v>
+        <v>-0.02057737112045288</v>
       </c>
       <c r="AI2">
-        <v>0.02231203950941563</v>
+        <v>0.02312517538666725</v>
       </c>
       <c r="AJ2">
-        <v>0.01512639503926039</v>
+        <v>0.01380088832229376</v>
       </c>
       <c r="AK2">
-        <v>0.009265734814107418</v>
+        <v>0.005120678804814816</v>
       </c>
       <c r="AL2">
-        <v>-0.002283381065353751</v>
+        <v>0.0078161945566535</v>
       </c>
       <c r="AM2">
-        <v>-0.03040827065706253</v>
+        <v>-0.03894925117492676</v>
       </c>
       <c r="AN2">
-        <v>-0.0688781663775444</v>
+        <v>-0.06561841070652008</v>
       </c>
       <c r="AO2">
-        <v>0.01913055777549744</v>
+        <v>0.01297958847135305</v>
       </c>
       <c r="AP2">
-        <v>0.08216255158185959</v>
+        <v>0.0788005068898201</v>
       </c>
       <c r="AQ2">
-        <v>-0.005758268758654594</v>
+        <v>0.002491173334419727</v>
       </c>
       <c r="AR2">
-        <v>0.04080865532159805</v>
+        <v>0.0538189597427845</v>
       </c>
       <c r="AS2">
-        <v>0.02660129033029079</v>
+        <v>0.03253406286239624</v>
       </c>
       <c r="AT2">
-        <v>0.01047639269381762</v>
+        <v>0.008259639143943787</v>
       </c>
       <c r="AU2">
-        <v>0.01302899606525898</v>
+        <v>0.01018873043358326</v>
       </c>
       <c r="AV2">
-        <v>-0.02622778341174126</v>
+        <v>-0.02975523099303246</v>
       </c>
       <c r="AW2">
-        <v>0.0291628148406744</v>
+        <v>0.02718916162848473</v>
       </c>
       <c r="AX2">
-        <v>-0.02898041717708111</v>
+        <v>-0.03154646977782249</v>
       </c>
       <c r="AY2">
-        <v>-0.03583073243498802</v>
+        <v>-0.03225875645875931</v>
       </c>
       <c r="AZ2">
-        <v>-0.0366104319691658</v>
+        <v>-0.03895309939980507</v>
       </c>
       <c r="BA2">
-        <v>-0.008606905117630959</v>
+        <v>-0.007044511381536722</v>
       </c>
       <c r="BB2">
-        <v>0.06539296358823776</v>
+        <v>0.06990911066532135</v>
       </c>
       <c r="BC2">
-        <v>-0.00829353928565979</v>
+        <v>-0.003506849985569715</v>
       </c>
       <c r="BD2">
-        <v>0.05431854352355003</v>
+        <v>0.05766388028860092</v>
       </c>
       <c r="BE2">
-        <v>-0.003927685786038637</v>
+        <v>-0.00590190663933754</v>
       </c>
       <c r="BF2">
-        <v>0.02749367244541645</v>
+        <v>0.02962883003056049</v>
       </c>
       <c r="BG2">
-        <v>-0.04343527927994728</v>
+        <v>-0.04071491211652756</v>
       </c>
       <c r="BH2">
-        <v>0.001271580811589956</v>
+        <v>0.002353011630475521</v>
       </c>
       <c r="BI2">
-        <v>0.006990924477577209</v>
+        <v>0.0114054623991251</v>
       </c>
       <c r="BJ2">
-        <v>0.04383375495672226</v>
+        <v>0.03945605829358101</v>
       </c>
       <c r="BK2">
-        <v>0.003443870693445206</v>
+        <v>-0.003078869078308344</v>
       </c>
       <c r="BL2">
-        <v>0.02602076716721058</v>
+        <v>0.02151414938271046</v>
       </c>
       <c r="BM2">
-        <v>0.02685531601309776</v>
+        <v>0.02794980816543102</v>
       </c>
       <c r="BN2">
-        <v>-0.00737850833684206</v>
+        <v>-0.0140707716345787</v>
       </c>
       <c r="BO2">
-        <v>0.05598334968090057</v>
+        <v>0.03935489431023598</v>
       </c>
       <c r="BP2">
-        <v>0.01979744248092175</v>
+        <v>0.01174685265868902</v>
       </c>
       <c r="BQ2">
-        <v>-0.02551252208650112</v>
+        <v>-0.01701485738158226</v>
       </c>
       <c r="BR2">
-        <v>0.0002897752856370062</v>
+        <v>-0.006294531282037497</v>
       </c>
       <c r="BS2">
-        <v>-0.00178248668089509</v>
+        <v>0.0006359312683343887</v>
       </c>
       <c r="BT2">
-        <v>6.803289579693228E-05</v>
+        <v>-0.008317633531987667</v>
       </c>
       <c r="BU2">
-        <v>-0.01734520308673382</v>
+        <v>-0.0163763165473938</v>
       </c>
       <c r="BV2">
-        <v>-0.1222370490431786</v>
+        <v>-0.1220146045088768</v>
       </c>
       <c r="BW2">
-        <v>-0.008568008430302143</v>
+        <v>-0.01529261749237776</v>
       </c>
       <c r="BX2">
-        <v>-0.119115985929966</v>
+        <v>-0.1201193109154701</v>
       </c>
       <c r="BY2">
-        <v>0.0003561366756912321</v>
+        <v>0.002538287080824375</v>
       </c>
       <c r="BZ2">
-        <v>0.1838554292917252</v>
+        <v>0.1831925958395004</v>
       </c>
       <c r="CA2">
-        <v>0.02759278565645218</v>
+        <v>0.02615783177316189</v>
       </c>
       <c r="CB2">
-        <v>-0.01762492768466473</v>
+        <v>-0.01952886953949928</v>
       </c>
       <c r="CC2">
-        <v>-0.0009645831887610257</v>
+        <v>0.0003790152550209314</v>
       </c>
       <c r="CD2">
-        <v>0.008109469898045063</v>
+        <v>0.0008624471956863999</v>
       </c>
       <c r="CE2">
-        <v>-0.1012275889515877</v>
+        <v>-0.1093164086341858</v>
       </c>
       <c r="CF2">
-        <v>-0.03929939866065979</v>
+        <v>-0.04155602678656578</v>
       </c>
       <c r="CG2">
-        <v>0.06116291880607605</v>
+        <v>0.05812468007206917</v>
       </c>
       <c r="CH2">
-        <v>0.06319080293178558</v>
+        <v>0.07155083864927292</v>
       </c>
       <c r="CI2">
-        <v>-0.0344969742000103</v>
+        <v>-0.03129984065890312</v>
       </c>
       <c r="CJ2">
-        <v>-0.0544133260846138</v>
+        <v>-0.0485517606139183</v>
       </c>
       <c r="CK2">
-        <v>-0.002804228570312262</v>
+        <v>-0.003783521009609103</v>
       </c>
       <c r="CL2">
-        <v>-0.003418112173676491</v>
+        <v>-0.0007586260326206684</v>
       </c>
       <c r="CM2">
-        <v>-0.005488728638738394</v>
+        <v>-0.01029284205287695</v>
       </c>
       <c r="CN2">
-        <v>-0.008932072669267654</v>
+        <v>-0.002493193838745356</v>
       </c>
       <c r="CO2">
-        <v>0.000758186390157789</v>
+        <v>0.00381775782443583</v>
       </c>
       <c r="CP2">
-        <v>-0.03871460258960724</v>
+        <v>-0.03792420029640198</v>
       </c>
       <c r="CQ2">
-        <v>0.04976635053753853</v>
+        <v>0.0523366704583168</v>
       </c>
       <c r="CR2">
-        <v>0.003805463667958975</v>
+        <v>0.004868274554610252</v>
       </c>
       <c r="CS2">
-        <v>-0.002167869592085481</v>
+        <v>0.0004254522209521383</v>
       </c>
       <c r="CT2">
-        <v>-0.008981579914689064</v>
+        <v>-0.00753953168168664</v>
       </c>
       <c r="CU2">
-        <v>0.003246944397687912</v>
+        <v>0.003752764547243714</v>
       </c>
       <c r="CV2">
-        <v>0.01638444699347019</v>
+        <v>0.01200820226222277</v>
       </c>
       <c r="CW2">
-        <v>-0.09930030256509781</v>
+        <v>-0.1008474081754684</v>
       </c>
       <c r="CX2">
-        <v>-0.006355185527354479</v>
+        <v>-0.007735552731901407</v>
       </c>
       <c r="CY2">
-        <v>-0.00752177694812417</v>
+        <v>-0.0101339453831315</v>
       </c>
       <c r="CZ2">
-        <v>0.007317705079913139</v>
+        <v>0.002517922548577189</v>
       </c>
       <c r="DA2">
-        <v>-0.1100484058260918</v>
+        <v>-0.1240027695894241</v>
       </c>
       <c r="DB2">
-        <v>0.004402655642479658</v>
+        <v>-0.001559321768581867</v>
       </c>
       <c r="DC2">
-        <v>0.001887803664430976</v>
+        <v>-0.0009654377936385572</v>
       </c>
       <c r="DD2">
-        <v>0.09688538312911987</v>
+        <v>0.09987601637840271</v>
       </c>
       <c r="DE2">
-        <v>0.008273986168205738</v>
+        <v>0.01034430135041475</v>
       </c>
       <c r="DF2">
-        <v>0.08510532230138779</v>
+        <v>0.08363044261932373</v>
       </c>
       <c r="DG2">
-        <v>0.001906269695609808</v>
+        <v>-0.0001694805105216801</v>
       </c>
       <c r="DH2">
-        <v>-0.04895101860165596</v>
+        <v>-0.04797760769724846</v>
       </c>
       <c r="DI2">
-        <v>-0.01580622978508472</v>
+        <v>-0.0179547443985939</v>
       </c>
       <c r="DJ2">
-        <v>0.1025286093354225</v>
+        <v>0.105286531150341</v>
       </c>
       <c r="DK2">
-        <v>-0.139160692691803</v>
+        <v>-0.1342350542545319</v>
       </c>
       <c r="DL2">
-        <v>-0.08640480786561966</v>
+        <v>-0.08637616038322449</v>
       </c>
       <c r="DM2">
-        <v>-0.09855934232473373</v>
+        <v>-0.09377028793096542</v>
       </c>
       <c r="DN2">
-        <v>0.06801685690879822</v>
+        <v>0.07073254883289337</v>
       </c>
       <c r="DO2">
-        <v>0.04645606502890587</v>
+        <v>0.04543763026595116</v>
       </c>
       <c r="DP2">
-        <v>0.01506789214909077</v>
+        <v>0.01204757113009691</v>
       </c>
       <c r="DQ2">
-        <v>0.001602997072041035</v>
+        <v>0.005504781845957041</v>
       </c>
       <c r="DR2">
-        <v>-0.004749676678329706</v>
+        <v>0.007088666316121817</v>
       </c>
       <c r="DS2">
-        <v>-0.04245447367429733</v>
+        <v>-0.03638181835412979</v>
       </c>
       <c r="DT2">
-        <v>0.07080560177564621</v>
+        <v>0.06290464103221893</v>
       </c>
       <c r="DU2">
-        <v>0.02698525786399841</v>
+        <v>0.027147451415658</v>
       </c>
       <c r="DV2">
-        <v>0.002252549864351749</v>
+        <v>-0.0007944207172840834</v>
       </c>
       <c r="DW2">
-        <v>-0.003783996915444732</v>
+        <v>-0.01405684649944305</v>
       </c>
       <c r="DX2">
-        <v>-0.02274256199598312</v>
+        <v>-0.02028609253466129</v>
       </c>
       <c r="DY2">
-        <v>0.05158564448356628</v>
+        <v>0.05873747915029526</v>
       </c>
       <c r="DZ2">
-        <v>-0.001222790102474391</v>
+        <v>-0.001794110634364188</v>
       </c>
       <c r="EA2">
-        <v>0.06044069305062294</v>
+        <v>0.06813432276248932</v>
       </c>
       <c r="EB2">
-        <v>0.06528372317552567</v>
+        <v>0.06841922551393509</v>
       </c>
       <c r="EC2">
-        <v>0.0007946278201416135</v>
+        <v>-0.0006556482403539121</v>
       </c>
       <c r="ED2">
-        <v>0.01407370157539845</v>
+        <v>0.01720838807523251</v>
       </c>
       <c r="EE2">
-        <v>0.001814019866287708</v>
+        <v>0.00343491742387414</v>
       </c>
       <c r="EF2">
-        <v>0.06441435962915421</v>
+        <v>0.06549496203660965</v>
       </c>
       <c r="EG2">
-        <v>0.01926168240606785</v>
+        <v>0.004390670452266932</v>
       </c>
       <c r="EH2">
-        <v>0.006292835343629122</v>
+        <v>0.002849140670150518</v>
       </c>
       <c r="EI2">
-        <v>0.07284880429506302</v>
+        <v>0.0726889967918396</v>
       </c>
       <c r="EJ2">
-        <v>-0.05136896297335625</v>
+        <v>-0.04333430528640747</v>
       </c>
       <c r="EK2">
-        <v>-0.003688266268000007</v>
+        <v>-0.0007577474461868405</v>
       </c>
       <c r="EL2">
-        <v>-0.003733244724571705</v>
+        <v>-0.001124530914239585</v>
       </c>
       <c r="EM2">
-        <v>-0.06348741054534912</v>
+        <v>-0.07261278480291367</v>
       </c>
       <c r="EN2">
-        <v>-0.047831941395998</v>
+        <v>-0.05156833678483963</v>
       </c>
       <c r="EO2">
-        <v>0.04791172221302986</v>
+        <v>0.03774623200297356</v>
       </c>
       <c r="EP2">
-        <v>0.007526494096964598</v>
+        <v>-0.001520478865131736</v>
       </c>
       <c r="EQ2">
-        <v>0.0587211474776268</v>
+        <v>0.06247496232390404</v>
       </c>
       <c r="ER2">
-        <v>-0.004943257197737694</v>
+        <v>-0.004250496625900269</v>
       </c>
       <c r="ES2">
-        <v>-0.006506795063614845</v>
+        <v>-0.008924806490540504</v>
       </c>
       <c r="ET2">
-        <v>-0.05200982838869095</v>
+        <v>-0.04847268387675285</v>
       </c>
       <c r="EU2">
-        <v>-0.04495114833116531</v>
+        <v>-0.04517233371734619</v>
       </c>
       <c r="EV2">
-        <v>-0.06607762724161148</v>
+        <v>-0.07286657392978668</v>
       </c>
       <c r="EW2">
-        <v>0.05434537306427956</v>
+        <v>0.05905721709132195</v>
       </c>
       <c r="EX2">
-        <v>-0.05531764402985573</v>
+        <v>-0.0630919486284256</v>
       </c>
       <c r="EY2">
-        <v>0.01401119772344828</v>
+        <v>0.017009312286973</v>
       </c>
       <c r="EZ2">
-        <v>-0.1511172652244568</v>
+        <v>-0.1417768448591232</v>
       </c>
       <c r="FA2">
-        <v>-0.003675062675029039</v>
+        <v>0.0008976446115411818</v>
       </c>
       <c r="FB2">
-        <v>6.170212145661935E-05</v>
+        <v>0.002615174278616905</v>
       </c>
       <c r="FC2">
-        <v>-0.03049753047525883</v>
+        <v>-0.03124884888529778</v>
       </c>
       <c r="FD2">
-        <v>-0.007244278211146593</v>
+        <v>-0.01204600371420383</v>
       </c>
       <c r="FE2">
-        <v>0.02536782622337341</v>
+        <v>0.03343557566404343</v>
       </c>
       <c r="FF2">
-        <v>-0.05353326350450516</v>
+        <v>-0.05205794796347618</v>
       </c>
       <c r="FG2">
-        <v>-0.02250285446643829</v>
+        <v>-0.01940259896218777</v>
       </c>
       <c r="FH2">
-        <v>-0.001672517973929644</v>
+        <v>0.003678599838167429</v>
       </c>
       <c r="FI2">
-        <v>0.005030679982155561</v>
+        <v>0.003134609898552299</v>
       </c>
       <c r="FJ2">
-        <v>-0.01184546016156673</v>
+        <v>-0.01832432486116886</v>
       </c>
       <c r="FK2">
-        <v>-0.001868573017418385</v>
+        <v>-0.0001919913484016433</v>
       </c>
       <c r="FL2">
-        <v>-0.1121171340346336</v>
+        <v>-0.1122504621744156</v>
       </c>
       <c r="FM2">
-        <v>0.06304527074098587</v>
+        <v>0.05860632658004761</v>
       </c>
       <c r="FN2">
-        <v>0.04952899366617203</v>
+        <v>0.04044732078909874</v>
       </c>
       <c r="FO2">
-        <v>0.0002568934287410229</v>
+        <v>-0.003166451584547758</v>
       </c>
       <c r="FP2">
-        <v>0.00259754853323102</v>
+        <v>0.003383711446076632</v>
       </c>
       <c r="FQ2">
-        <v>0.00186333036981523</v>
+        <v>0.004464115481823683</v>
       </c>
       <c r="FR2">
-        <v>-0.004156503826379776</v>
+        <v>-0.0006625928217545152</v>
       </c>
       <c r="FS2">
-        <v>-0.000433556386269629</v>
+        <v>0.001605641911737621</v>
       </c>
       <c r="FT2">
-        <v>-0.001976911444216967</v>
+        <v>-0.000724416458979249</v>
       </c>
       <c r="FU2">
-        <v>0.03536849841475487</v>
+        <v>0.03833324462175369</v>
       </c>
       <c r="FV2">
-        <v>0.01928840577602386</v>
+        <v>0.01995249651372433</v>
       </c>
       <c r="FW2">
-        <v>-0.02244536578655243</v>
+        <v>-0.01872166991233826</v>
       </c>
       <c r="FX2">
-        <v>0.008991166017949581</v>
+        <v>-0.003004206344485283</v>
       </c>
       <c r="FY2">
-        <v>-0.006498439237475395</v>
+        <v>-0.002494417829439044</v>
       </c>
       <c r="FZ2">
-        <v>0.008777041919529438</v>
+        <v>0.007756283972412348</v>
       </c>
       <c r="GA2">
-        <v>0.0505516529083252</v>
+        <v>0.04943894594907761</v>
       </c>
       <c r="GB2">
-        <v>-0.0004899969208054245</v>
+        <v>0.0006482626777142286</v>
       </c>
       <c r="GC2">
-        <v>-0.02895617112517357</v>
+        <v>-0.02241096831858158</v>
       </c>
       <c r="GD2">
-        <v>-6.933213398951921E-07</v>
+        <v>0.00419814046472311</v>
       </c>
       <c r="GE2">
-        <v>0.005404687952250242</v>
+        <v>0.007177857682108879</v>
       </c>
       <c r="GF2">
-        <v>-0.03511277958750725</v>
+        <v>-0.03734211623668671</v>
       </c>
       <c r="GG2">
-        <v>-0.1074860990047455</v>
+        <v>-0.1057561784982681</v>
       </c>
       <c r="GH2">
-        <v>-0.0004041159700136632</v>
+        <v>-0.002618451602756977</v>
       </c>
       <c r="GI2">
-        <v>-0.09750638157129288</v>
+        <v>-0.09520895779132843</v>
       </c>
       <c r="GJ2">
-        <v>-0.002411420689895749</v>
+        <v>0.003426585346460342</v>
       </c>
       <c r="GK2">
-        <v>-0.09824236482381821</v>
+        <v>-0.09471264481544495</v>
       </c>
       <c r="GL2">
-        <v>-0.1363993585109711</v>
+        <v>-0.1449431627988815</v>
       </c>
       <c r="GM2">
-        <v>-0.004594774916768074</v>
+        <v>0.002606814727187157</v>
       </c>
       <c r="GN2">
-        <v>-0.09486082941293716</v>
+        <v>-0.1037119254469872</v>
       </c>
       <c r="GO2">
-        <v>0.07416127622127533</v>
+        <v>0.06965677440166473</v>
       </c>
       <c r="GP2">
-        <v>0.0003550821857061237</v>
+        <v>0.00237336615100503</v>
       </c>
       <c r="GQ2">
-        <v>-0.003041112329810858</v>
+        <v>-0.002721643075346947</v>
       </c>
       <c r="GR2">
-        <v>-0.009175184182822704</v>
+        <v>-0.01223569922149181</v>
       </c>
       <c r="GS2">
-        <v>-0.008846034295856953</v>
+        <v>-0.01006104238331318</v>
       </c>
       <c r="GT2">
-        <v>0.003064446151256561</v>
+        <v>0.002010867465287447</v>
       </c>
       <c r="GU2">
-        <v>-0.01090823113918304</v>
+        <v>-0.01217486336827278</v>
       </c>
       <c r="GV2">
-        <v>0.003252035705372691</v>
+        <v>0.008895557373762131</v>
       </c>
       <c r="GW2">
-        <v>0.0616711862385273</v>
+        <v>0.0625593289732933</v>
       </c>
       <c r="GX2">
-        <v>-0.00493117980659008</v>
+        <v>-0.0006607536925002933</v>
       </c>
       <c r="GY2">
-        <v>0.006946651730686426</v>
+        <v>0.01046777796000242</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Automobiles.xlsx
+++ b/static/Models/Regression/Equation/Automobiles.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02019997499883175</v>
+        <v>-0.02143180184066296</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.09604065120220184</v>
+        <v>-0.09301558881998062</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.08061890304088593</v>
+        <v>-0.08004308491945267</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02718461863696575</v>
+        <v>0.02723780646920204</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.007251712027937174</v>
+        <v>-0.01083474513143301</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.008408228866755962</v>
+        <v>-0.005513079930096865</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.004366303794085979</v>
+        <v>-0.008566712029278278</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0008134860545396805</v>
+        <v>-0.0008358175400644541</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1786305159330368</v>
+        <v>-0.1812576800584793</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.003867072518914938</v>
+        <v>-0.00457003666087985</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.001156981335952878</v>
+        <v>0.001749420654959977</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.008150311186909676</v>
+        <v>-0.009477299638092518</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01220786105841398</v>
+        <v>0.01959432475268841</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06635162979364395</v>
+        <v>0.0692707896232605</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07098565250635147</v>
+        <v>0.07330778986215591</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.01599694974720478</v>
+        <v>-0.01247617695480585</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01217713858932257</v>
+        <v>-0.01545580290257931</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03841415420174599</v>
+        <v>0.03713085874915123</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04718520864844322</v>
+        <v>0.04574696347117424</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01140490267425776</v>
+        <v>0.009545599110424519</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.006311135832220316</v>
+        <v>-0.01424713619053364</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08774859458208084</v>
+        <v>0.08804526925086975</v>
       </c>
       <c r="X2" t="n">
-        <v>0.006041021551936865</v>
+        <v>0.00419346522539854</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.03284232318401337</v>
+        <v>-0.02870253473520279</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.02735492400825024</v>
+        <v>-0.03064431995153427</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.009737015701830387</v>
+        <v>0.009048513136804104</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.04014365002512932</v>
+        <v>0.03816023841500282</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.03491698578000069</v>
+        <v>-0.0361572690308094</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.117578312754631</v>
+        <v>-0.1191622838377953</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.06461192667484283</v>
+        <v>-0.06410457193851471</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.005895630922168493</v>
+        <v>0.003747133770957589</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.009720456786453724</v>
+        <v>-0.0147634269669652</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.01851145178079605</v>
+        <v>-0.02117128297686577</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.02200960926711559</v>
+        <v>0.02062086388468742</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.01389466039836407</v>
+        <v>0.01225345768034458</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.005314295180141926</v>
+        <v>0.009601717814803123</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.003707012627273798</v>
+        <v>-0.00330819352529943</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.03613769635558128</v>
+        <v>-0.03826854377985001</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.05930641293525696</v>
+        <v>-0.05897139757871628</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.01715068519115448</v>
+        <v>0.02173160016536713</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.07916929572820663</v>
+        <v>0.07784233242273331</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.009518804028630257</v>
+        <v>0.01051359437406063</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.05866580829024315</v>
+        <v>0.05610130727291107</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.02901056595146656</v>
+        <v>0.02832371741533279</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.01412805914878845</v>
+        <v>0.01215811353176832</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.009244742803275585</v>
+        <v>0.01095697656273842</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.02806195057928562</v>
+        <v>-0.02910225093364716</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0241148117929697</v>
+        <v>0.02541502192616463</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.02592414617538452</v>
+        <v>-0.02827820181846619</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.02554767392575741</v>
+        <v>-0.02800869196653366</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.0351729616522789</v>
+        <v>-0.04506389051675797</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.00612341845408082</v>
+        <v>-0.01432978827506304</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.07742735743522644</v>
+        <v>0.08059187978506088</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.001003102748654783</v>
+        <v>-0.0009655124158598483</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.05675126239657402</v>
+        <v>0.0552239678800106</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.008043164387345314</v>
+        <v>-0.0004922947846353054</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.03632671758532524</v>
+        <v>0.04008408635854721</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.04029275104403496</v>
+        <v>-0.04197290539741516</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0008368281996808946</v>
+        <v>0.01113948412239552</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0103030800819397</v>
+        <v>0.008784715086221695</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.04307591542601585</v>
+        <v>0.04014178365468979</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.0007531303563155234</v>
+        <v>-0.003266975749284029</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.02695443853735924</v>
+        <v>0.02686214819550514</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.03536122292280197</v>
+        <v>0.03848216310143471</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.008735792711377144</v>
+        <v>-0.0100229075178504</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.04482981190085411</v>
+        <v>0.0448446124792099</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.01007311325520277</v>
+        <v>0.0116716967895627</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.009868914261460304</v>
+        <v>0.002030870178714395</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.009797547943890095</v>
+        <v>-0.006810771301388741</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0003441706649027765</v>
+        <v>-5.02273269376019e-06</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.006989459972828627</v>
+        <v>-0.003076138673350215</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.01793097332119942</v>
+        <v>-0.01833411864936352</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.124574102461338</v>
+        <v>-0.1206392869353294</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.01045083533972502</v>
+        <v>-0.004130641464143991</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.1134977266192436</v>
+        <v>-0.1160389184951782</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.009491876699030399</v>
+        <v>0.006099577061831951</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.1886546462774277</v>
+        <v>0.1863570064306259</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.02194934338331223</v>
+        <v>0.0240142960101366</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.01758922822773457</v>
+        <v>-0.01910218596458435</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.004125484265387058</v>
+        <v>0.002124904887750745</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.004553350619971752</v>
+        <v>0.001426542643457651</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.1076118946075439</v>
+        <v>-0.1105316877365112</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.03679684922099113</v>
+        <v>-0.03821548074483871</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.06425777822732925</v>
+        <v>0.0595114566385746</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.07802259176969528</v>
+        <v>0.07703268527984619</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.03207940235733986</v>
+        <v>-0.03386509791016579</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.05739856138825417</v>
+        <v>-0.06577160954475403</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.005176091566681862</v>
+        <v>-0.006719136144965887</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.00250205141492188</v>
+        <v>0.001060240436345339</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.00982140377163887</v>
+        <v>-0.01367739960551262</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.002909924602136016</v>
+        <v>-0.002136324299499393</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0024489292409271</v>
+        <v>0.0005903510609641671</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.03390445187687874</v>
+        <v>-0.03261350467801094</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0527346096932888</v>
+        <v>0.04267409816384315</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.004781555384397507</v>
+        <v>0.00416590366512537</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.0008917491068132222</v>
+        <v>-0.002492799889296293</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.003949957899749279</v>
+        <v>-0.005943375173956156</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.00603845901787281</v>
+        <v>0.003516177413985133</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0124360928311944</v>
+        <v>0.01010335981845856</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.09547846019268036</v>
+        <v>-0.08917692303657532</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.008611150085926056</v>
+        <v>-0.009987783618271351</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.01386490743607283</v>
+        <v>-0.01319916546344757</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.004645873792469501</v>
+        <v>0.008709097281098366</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.1190314069390297</v>
+        <v>-0.1224374994635582</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0022678067907691</v>
+        <v>-0.0003477823338471353</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.001585802296176553</v>
+        <v>-0.0003419666609261185</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.1034136414527893</v>
+        <v>0.1016456335783005</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.009618951007723808</v>
+        <v>0.0077935173176229</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.08775938302278519</v>
+        <v>0.08892522752285004</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.002954429946839809</v>
+        <v>0.002090096240863204</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.04084279760718346</v>
+        <v>-0.04319195076823235</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.01959338970482349</v>
+        <v>-0.01789291948080063</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.1144268289208412</v>
+        <v>0.1165285483002663</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.136795848608017</v>
+        <v>-0.1380453258752823</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.07945805788040161</v>
+        <v>-0.08484366536140442</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.0909736156463623</v>
+        <v>-0.09316462278366089</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.07071263343095779</v>
+        <v>0.06908613443374634</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.04292230680584908</v>
+        <v>0.03868111222982407</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.01739273592829704</v>
+        <v>0.01649515330791473</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.005181385669857264</v>
+        <v>0.003493863623589277</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.006769536528736353</v>
+        <v>0.006032775156199932</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.03817945718765259</v>
+        <v>-0.02937968075275421</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.06903719902038574</v>
+        <v>0.06796509027481079</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.03281017765402794</v>
+        <v>0.03104760870337486</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.001147517352364957</v>
+        <v>-0.003575173672288656</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.01174959260970354</v>
+        <v>-0.004942594561725855</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.01993152499198914</v>
+        <v>-0.02161146700382233</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.05630140751600266</v>
+        <v>0.04482885450124741</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.005855454597622156</v>
+        <v>0.003599142655730247</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.06065050140023232</v>
+        <v>0.05871918797492981</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.06754123419523239</v>
+        <v>0.06576135754585266</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.003287100233137608</v>
+        <v>0.005320190452039242</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.01670866832137108</v>
+        <v>0.01549276616424322</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.002968061482533813</v>
+        <v>0.001284076832234859</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0710333064198494</v>
+        <v>0.07244357466697693</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.002121511613950133</v>
+        <v>0.000168505750480108</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.0003693066828418523</v>
+        <v>0.002167914528399706</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.07793806493282318</v>
+        <v>0.07583358883857727</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.04025657474994659</v>
+        <v>-0.03750923648476601</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.001137544866651297</v>
+        <v>-0.00231547886505723</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.002191409235820174</v>
+        <v>-0.003949456848204136</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.0698254257440567</v>
+        <v>-0.06988172978162766</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.05404988676309586</v>
+        <v>-0.0557580254971981</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.04470377787947655</v>
+        <v>0.04058229923248291</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.005188542883843184</v>
+        <v>0.00666574202477932</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.06411957740783691</v>
+        <v>0.06137198209762573</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.009995916858315468</v>
+        <v>-0.007937303744256496</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.008488917723298073</v>
+        <v>-0.008950953371822834</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.05415822193026543</v>
+        <v>-0.04629095271229744</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.04764867946505547</v>
+        <v>-0.04324182868003845</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.06663952767848969</v>
+        <v>-0.06521714478731155</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.06172378733754158</v>
+        <v>0.05674157291650772</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.05932556092739105</v>
+        <v>-0.05894153937697411</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.01719723455607891</v>
+        <v>0.01641343720257282</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.1401657164096832</v>
+        <v>-0.1535385549068451</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.001586550613865256</v>
+        <v>0.003581281285732985</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.001601493218913674</v>
+        <v>-0.0003424974274821579</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.02509099803864956</v>
+        <v>-0.02568657137453556</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.01029335428029299</v>
+        <v>-0.01345584634691477</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.02676291950047016</v>
+        <v>0.03573417663574219</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.05315884202718735</v>
+        <v>-0.05318387597799301</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.009130075573921204</v>
+        <v>-0.009183376096189022</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.001242641010321677</v>
+        <v>0.004410392604768276</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.003942311741411686</v>
+        <v>0.002601731335744262</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.02283715642988682</v>
+        <v>-0.02750857174396515</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.005138955544680357</v>
+        <v>0.007465267088264227</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.1101761013269424</v>
+        <v>-0.1102801263332367</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.06245030090212822</v>
+        <v>0.06334409117698669</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.04581087827682495</v>
+        <v>0.04772710427641869</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.002166174817830324</v>
+        <v>-0.00397334061563015</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.0008713854476809502</v>
+        <v>-0.004189595114439726</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.003460180945694447</v>
+        <v>0.001647774130105972</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.00129788788035512</v>
+        <v>-0.003101502545177937</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.005585848819464445</v>
+        <v>0.003955240827053785</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.002352380426600575</v>
+        <v>-0.004257791209965944</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.03714673593640327</v>
+        <v>0.03592627868056297</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.01800774969160557</v>
+        <v>0.01704201474785805</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.0196961797773838</v>
+        <v>-0.0212261788547039</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.001742202322930098</v>
+        <v>-0.005831516347825527</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.001048813806846738</v>
+        <v>0.002790813334286213</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.01108882017433643</v>
+        <v>0.01604188978672028</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.05288778617978096</v>
+        <v>0.05030538886785507</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.0003445799229666591</v>
+        <v>0.00457086693495512</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.01691634953022003</v>
+        <v>-0.01670191064476967</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.01090794894844294</v>
+        <v>0.009214261546730995</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.006093166302889585</v>
+        <v>0.004272797610610723</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.03749532997608185</v>
+        <v>-0.04049007594585419</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.108930841088295</v>
+        <v>-0.1061315834522247</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.003497953526675701</v>
+        <v>-0.004810011945664883</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.0982091948390007</v>
+        <v>-0.09543344378471375</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.00157003419008106</v>
+        <v>0.003094067331403494</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.08580562472343445</v>
+        <v>-0.0865405797958374</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.1463634818792343</v>
+        <v>-0.1414680033922195</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.006305154412984848</v>
+        <v>0.007925556041300297</v>
       </c>
       <c r="GN2" t="n">
-        <v>-0.1006208434700966</v>
+        <v>-0.1120833829045296</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.0630577877163887</v>
+        <v>0.06456298381090164</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.0061091473326087</v>
+        <v>0.00442208256572485</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.00470137782394886</v>
+        <v>-0.004512859974056482</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.009323354810476303</v>
+        <v>-0.006165530998259783</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.00280250352807343</v>
+        <v>-0.005275062751024961</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.0009838007390499115</v>
+        <v>-0.003066477831453085</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.01513746287673712</v>
+        <v>-0.01366561185568571</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.005577550735324621</v>
+        <v>0.009510667063295841</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.06163134053349495</v>
+        <v>0.0642908588051796</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.0004818164743483067</v>
+        <v>-0.003475375706329942</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.009470053948462009</v>
+        <v>0.007939715869724751</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Automobiles.xlsx
+++ b/static/Models/Regression/Equation/Automobiles.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02143180184066296</v>
+        <v>-0.02243690378963947</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.09301558881998062</v>
+        <v>-0.08752388507127762</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.08004308491945267</v>
+        <v>-0.0762091800570488</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02723780646920204</v>
+        <v>0.03288417682051659</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01083474513143301</v>
+        <v>-0.008250449784100056</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.005513079930096865</v>
+        <v>-0.008074359036982059</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.008566712029278278</v>
+        <v>-0.003582284785807133</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0008358175400644541</v>
+        <v>-0.0006668574642390013</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1812576800584793</v>
+        <v>-0.1835614442825317</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.00457003666087985</v>
+        <v>-0.007451470009982586</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001749420654959977</v>
+        <v>0.008504011668264866</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.009477299638092518</v>
+        <v>-0.004282295238226652</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01959432475268841</v>
+        <v>0.02384401485323906</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0692707896232605</v>
+        <v>0.06810584664344788</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07330778986215591</v>
+        <v>0.07400727272033691</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.01247617695480585</v>
+        <v>-0.01344573404639959</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01545580290257931</v>
+        <v>-0.021230798214674</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03713085874915123</v>
+        <v>0.03494396433234215</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04574696347117424</v>
+        <v>0.04620745778083801</v>
       </c>
       <c r="U2" t="n">
-        <v>0.009545599110424519</v>
+        <v>0.01206772774457932</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.01424713619053364</v>
+        <v>-0.009381205774843693</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08804526925086975</v>
+        <v>0.08513320237398148</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00419346522539854</v>
+        <v>0.004827108234167099</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.02870253473520279</v>
+        <v>-0.02652357146143913</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.03064431995153427</v>
+        <v>-0.0336221419274807</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.009048513136804104</v>
+        <v>0.009387148544192314</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03816023841500282</v>
+        <v>0.03378696739673615</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.0361572690308094</v>
+        <v>-0.03747941926121712</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.1191622838377953</v>
+        <v>-0.1191082298755646</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.06410457193851471</v>
+        <v>-0.06427711248397827</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.003747133770957589</v>
+        <v>0.005925617646425962</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.0147634269669652</v>
+        <v>-0.01687402836978436</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.02117128297686577</v>
+        <v>-0.01312805619090796</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.02062086388468742</v>
+        <v>0.021563570946455</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.01225345768034458</v>
+        <v>0.01204628776758909</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.009601717814803123</v>
+        <v>0.008605089038610458</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.00330819352529943</v>
+        <v>-0.003959548659622669</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.03826854377985001</v>
+        <v>-0.04334769025444984</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.05897139757871628</v>
+        <v>-0.05245240032672882</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02173160016536713</v>
+        <v>0.02135787904262543</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.07784233242273331</v>
+        <v>0.08881726861000061</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.01051359437406063</v>
+        <v>0.005348321050405502</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.05610130727291107</v>
+        <v>0.05190808326005936</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.02832371741533279</v>
+        <v>0.03458427265286446</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.01215811353176832</v>
+        <v>0.01202903129160404</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.01095697656273842</v>
+        <v>0.00949766393750906</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.02910225093364716</v>
+        <v>-0.02666894532740116</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.02541502192616463</v>
+        <v>0.02677348628640175</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.02827820181846619</v>
+        <v>-0.03669276833534241</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.02800869196653366</v>
+        <v>-0.03355256840586662</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.04506389051675797</v>
+        <v>-0.04356357827782631</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.01432978827506304</v>
+        <v>-0.02148690260946751</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.08059187978506088</v>
+        <v>0.08614226430654526</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0009655124158598483</v>
+        <v>-0.004037725739181042</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0552239678800106</v>
+        <v>0.05521101504564285</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.0004922947846353054</v>
+        <v>-0.006598078180104494</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.04008408635854721</v>
+        <v>0.04461565241217613</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.04197290539741516</v>
+        <v>-0.04224488884210587</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.01113948412239552</v>
+        <v>0.00738159753382206</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.008784715086221695</v>
+        <v>0.01003157254308462</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.04014178365468979</v>
+        <v>0.04489770531654358</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.003266975749284029</v>
+        <v>-0.004207388497889042</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.02686214819550514</v>
+        <v>0.02748271822929382</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.03848216310143471</v>
+        <v>0.04034926742315292</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.0100229075178504</v>
+        <v>-0.01438351068645716</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0448446124792099</v>
+        <v>0.03654594719409943</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0116716967895627</v>
+        <v>0.0114239165559411</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.002030870178714395</v>
+        <v>-0.001723031862638891</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.006810771301388741</v>
+        <v>-0.001517896424047649</v>
       </c>
       <c r="BS2" t="n">
-        <v>-5.02273269376019e-06</v>
+        <v>-0.006328060757368803</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.003076138673350215</v>
+        <v>-0.003893987974151969</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.01833411864936352</v>
+        <v>-0.01742673292756081</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.1206392869353294</v>
+        <v>-0.1267324984073639</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.004130641464143991</v>
+        <v>-0.01024138275533915</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.1160389184951782</v>
+        <v>-0.1180791258811951</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.006099577061831951</v>
+        <v>0.004626373760402203</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.1863570064306259</v>
+        <v>0.1841117888689041</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0240142960101366</v>
+        <v>0.023300651460886</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.01910218596458435</v>
+        <v>-0.01787619851529598</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.002124904887750745</v>
+        <v>0.001537806470878422</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.001426542643457651</v>
+        <v>0.002183795906603336</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.1105316877365112</v>
+        <v>-0.1104919165372849</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.03821548074483871</v>
+        <v>-0.03216452896595001</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0595114566385746</v>
+        <v>0.05467765405774117</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.07703268527984619</v>
+        <v>0.07680586725473404</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.03386509791016579</v>
+        <v>-0.03378332406282425</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.06577160954475403</v>
+        <v>-0.06810752302408218</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.006719136144965887</v>
+        <v>-0.006266904529184103</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.001060240436345339</v>
+        <v>0.0006818625843152404</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.01367739960551262</v>
+        <v>-0.009892955422401428</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.002136324299499393</v>
+        <v>0.002548436401411891</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0005903510609641671</v>
+        <v>0.001328913727775216</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.03261350467801094</v>
+        <v>-0.0298556424677372</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.04267409816384315</v>
+        <v>0.03963520750403404</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.00416590366512537</v>
+        <v>0.00310057564638555</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.002492799889296293</v>
+        <v>-0.002293700352311134</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.005943375173956156</v>
+        <v>-0.006411423906683922</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.003516177413985133</v>
+        <v>0.002483471296727657</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.01010335981845856</v>
+        <v>0.004741337150335312</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.08917692303657532</v>
+        <v>-0.08711166679859161</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.009987783618271351</v>
+        <v>-0.01173242088407278</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.01319916546344757</v>
+        <v>-0.01242211367934942</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.008709097281098366</v>
+        <v>0.009234975092113018</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.1224374994635582</v>
+        <v>-0.1303126662969589</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.0003477823338471353</v>
+        <v>0.005023051984608173</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.0003419666609261185</v>
+        <v>0.004239288158714771</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.1016456335783005</v>
+        <v>0.106098935008049</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0077935173176229</v>
+        <v>0.008348749950528145</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.08892522752285004</v>
+        <v>0.09223344177007675</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.002090096240863204</v>
+        <v>-0.003933208994567394</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.04319195076823235</v>
+        <v>-0.04578453302383423</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.01789291948080063</v>
+        <v>-0.01517111156135798</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.1165285483002663</v>
+        <v>0.1200693771243095</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.1380453258752823</v>
+        <v>-0.1459601074457169</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.08484366536140442</v>
+        <v>-0.08643639087677002</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.09316462278366089</v>
+        <v>-0.09605977684259415</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.06908613443374634</v>
+        <v>0.0689750462770462</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.03868111222982407</v>
+        <v>0.03954632580280304</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.01649515330791473</v>
+        <v>0.0142640545964241</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.003493863623589277</v>
+        <v>0.004456580616533756</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.006032775156199932</v>
+        <v>-0.0004384703352116048</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.02937968075275421</v>
+        <v>-0.02984561212360859</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.06796509027481079</v>
+        <v>0.06857377290725708</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.03104760870337486</v>
+        <v>0.02625631541013718</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.003575173672288656</v>
+        <v>0.001137977000325918</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.004942594561725855</v>
+        <v>-0.0009699898073449731</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.02161146700382233</v>
+        <v>-0.02194189839065075</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.04482885450124741</v>
+        <v>0.03994803130626678</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.003599142655730247</v>
+        <v>0.009132764302194118</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.05871918797492981</v>
+        <v>0.05544336885213852</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.06576135754585266</v>
+        <v>0.06586970388889313</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.005320190452039242</v>
+        <v>0.0002800614456646144</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.01549276616424322</v>
+        <v>0.01589166559278965</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.001284076832234859</v>
+        <v>0.001210338203236461</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.07244357466697693</v>
+        <v>0.06532935053110123</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.000168505750480108</v>
+        <v>-0.00573804322630167</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.002167914528399706</v>
+        <v>0.001588656683452427</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.07583358883857727</v>
+        <v>0.07331743091344833</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.03750923648476601</v>
+        <v>-0.03719605132937431</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.00231547886505723</v>
+        <v>-0.001381651381962001</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.003949456848204136</v>
+        <v>-0.003270879853516817</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.06988172978162766</v>
+        <v>-0.06299465894699097</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.0557580254971981</v>
+        <v>-0.05369377508759499</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.04058229923248291</v>
+        <v>0.03536831587553024</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.00666574202477932</v>
+        <v>0.0008813258609734476</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.06137198209762573</v>
+        <v>0.05967871472239494</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.007937303744256496</v>
+        <v>-0.00385670643299818</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.008950953371822834</v>
+        <v>-0.003701671492308378</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.04629095271229744</v>
+        <v>-0.04401553049683571</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.04324182868003845</v>
+        <v>-0.04449186846613884</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.06521714478731155</v>
+        <v>-0.05875469744205475</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.05674157291650772</v>
+        <v>0.05797662958502769</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.05894153937697411</v>
+        <v>-0.06768888980150223</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.01641343720257282</v>
+        <v>0.01572468876838684</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.1535385549068451</v>
+        <v>-0.151859387755394</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.003581281285732985</v>
+        <v>0.006602458655834198</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.0003424974274821579</v>
+        <v>0.0004126805288251489</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.02568657137453556</v>
+        <v>-0.02820867672562599</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.01345584634691477</v>
+        <v>-0.01286784745752811</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.03573417663574219</v>
+        <v>0.03461351990699768</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.05318387597799301</v>
+        <v>-0.0502568706870079</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.009183376096189022</v>
+        <v>0.001774124801158905</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.004410392604768276</v>
+        <v>0.004584076348692179</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.002601731335744262</v>
+        <v>-0.0006251139566302299</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.02750857174396515</v>
+        <v>-0.03322726860642433</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.007465267088264227</v>
+        <v>0.004038743674755096</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.1102801263332367</v>
+        <v>-0.1002759486436844</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.06334409117698669</v>
+        <v>0.06011899933218956</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.04772710427641869</v>
+        <v>0.04692486673593521</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.00397334061563015</v>
+        <v>-0.0006769613246433437</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.004189595114439726</v>
+        <v>-0.00171936210244894</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.001647774130105972</v>
+        <v>0.002215508138760924</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.003101502545177937</v>
+        <v>-0.002128182211890817</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.003955240827053785</v>
+        <v>0.003753139637410641</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.004257791209965944</v>
+        <v>-0.003991561010479927</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.03592627868056297</v>
+        <v>0.03658929467201233</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.01704201474785805</v>
+        <v>0.01813692040741444</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.0212261788547039</v>
+        <v>-0.0211796946823597</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.005831516347825527</v>
+        <v>-0.005055849440395832</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.002790813334286213</v>
+        <v>0.004742870107293129</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.01604188978672028</v>
+        <v>0.01088850013911724</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.05030538886785507</v>
+        <v>0.04805623739957809</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.00457086693495512</v>
+        <v>-0.001530052744783461</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.01670191064476967</v>
+        <v>-0.01873233169317245</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.009214261546730995</v>
+        <v>0.003961530979722738</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.004272797610610723</v>
+        <v>0.005063352175056934</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.04049007594585419</v>
+        <v>-0.03628106415271759</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.1061315834522247</v>
+        <v>-0.1062059849500656</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.004810011945664883</v>
+        <v>0.001049357117153704</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.09543344378471375</v>
+        <v>-0.09691353887319565</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.003094067331403494</v>
+        <v>0.006538144312798977</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.0865405797958374</v>
+        <v>-0.08189913630485535</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.1414680033922195</v>
+        <v>-0.1375187039375305</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.007925556041300297</v>
+        <v>0.007095032371580601</v>
       </c>
       <c r="GN2" t="n">
-        <v>-0.1120833829045296</v>
+        <v>-0.109490878880024</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.06456298381090164</v>
+        <v>0.06170106679201126</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.00442208256572485</v>
+        <v>0.004408289678394794</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.004512859974056482</v>
+        <v>-0.01115037128329277</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.006165530998259783</v>
+        <v>-0.001136328792199492</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.005275062751024961</v>
+        <v>-0.01271085999906063</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.003066477831453085</v>
+        <v>-0.01104827784001827</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.01366561185568571</v>
+        <v>-0.01242291461676359</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.009510667063295841</v>
+        <v>0.00739247165620327</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.0642908588051796</v>
+        <v>0.06318744271993637</v>
       </c>
       <c r="GX2" t="n">
-        <v>-0.003475375706329942</v>
+        <v>-0.002903595333918929</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.007939715869724751</v>
+        <v>0.008409724570810795</v>
       </c>
     </row>
   </sheetData>
